--- a/results/09-2023/contributions-comparison-09-2023.xlsx
+++ b/results/09-2023/contributions-comparison-09-2023.xlsx
@@ -581,28 +581,28 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0157</v>
+        <v>0.0153</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0137</v>
+        <v>0.0138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0151</v>
+        <v>0.0165</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0182</v>
+        <v>0.0186</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0178</v>
+        <v>0.0175</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0106</v>
+        <v>0.0115</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0092</v>
+        <v>0.0102</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0101</v>
+        <v>0.0103</v>
       </c>
       <c r="L2" t="n">
         <v>0.0062</v>
@@ -769,31 +769,31 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0421</v>
+        <v>0.0416</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1851</v>
+        <v>0.1832</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0475</v>
+        <v>0.0467</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0343</v>
+        <v>-0.0341</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0253</v>
+        <v>0.0248</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0246</v>
+        <v>0.0242</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0365</v>
+        <v>-0.0364</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0355</v>
+        <v>-0.0353</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0007</v>
+        <v>-0.0009</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -825,10 +825,10 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>-0.0007</v>
+        <v>-0.0009</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0075</v>
+        <v>-0.0076</v>
       </c>
       <c r="O7" t="n">
         <v>-0.0074</v>
@@ -837,19 +837,19 @@
         <v>-0.0179</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0683</v>
+        <v>-0.0678</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0296</v>
+        <v>-0.0294</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0286</v>
+        <v>-0.0284</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.027</v>
+        <v>-0.0268</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0263</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="8">
@@ -863,31 +863,31 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0128</v>
+        <v>-0.1191</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6927</v>
+        <v>-0.6457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1686</v>
+        <v>0.3213</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1256</v>
+        <v>-0.2096</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4365</v>
+        <v>0.4212</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1787</v>
+        <v>-0.3109</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.4349</v>
+        <v>-0.1707</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1308</v>
+        <v>0.0933</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1969</v>
+        <v>-0.1747</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -919,31 +919,31 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>-0.186</v>
+        <v>-0.1378</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1945</v>
+        <v>-0.1926</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3951</v>
+        <v>-0.3912</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4939</v>
+        <v>-0.4891</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.143</v>
+        <v>-0.1416</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1426</v>
+        <v>-0.1412</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.46</v>
+        <v>-0.4555</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.4584</v>
+        <v>-0.4539</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1227</v>
+        <v>-0.1215</v>
       </c>
     </row>
     <row r="10">
@@ -957,31 +957,31 @@
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0173</v>
+        <v>-0.0167</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0199</v>
+        <v>-0.0225</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04</v>
+        <v>-0.0488</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0509</v>
+        <v>-0.0712</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1279</v>
+        <v>0.1062</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0301</v>
+        <v>-0.0456</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3153</v>
+        <v>0.2944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2814</v>
+        <v>0.257</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -1013,31 +1013,31 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>0.3319</v>
+        <v>0.3454</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3106</v>
+        <v>0.322</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2054</v>
+        <v>0.2069</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0771</v>
+        <v>-0.0731</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1953</v>
+        <v>-0.1906</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1772</v>
+        <v>-0.174</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.244</v>
+        <v>-0.2324</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1845</v>
+        <v>-0.1648</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1351</v>
+        <v>-0.1131</v>
       </c>
     </row>
     <row r="12">
@@ -1051,31 +1051,31 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0481</v>
+        <v>-0.0053</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1533</v>
+        <v>0.1156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0452</v>
+        <v>0.0629</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0595</v>
+        <v>0.1572</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0847</v>
+        <v>0.0108</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0916</v>
+        <v>-0.0442</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0648</v>
+        <v>-0.1304</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.04</v>
+        <v>-0.1586</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0647</v>
+        <v>-0.0822</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -1107,31 +1107,31 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>-0.0083</v>
+        <v>-0.0427</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0386</v>
+        <v>-0.02</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1277</v>
+        <v>-0.062</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.126</v>
+        <v>-0.0524</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0625</v>
+        <v>-0.0619</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0066</v>
+        <v>0.0065</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0712</v>
+        <v>0.0705</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1177</v>
+        <v>0.1165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1641</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="14">
@@ -1145,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4116</v>
+        <v>-0.5022</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4139</v>
+        <v>-0.4732</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4064</v>
+        <v>-0.4268</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8843</v>
+        <v>-0.7124</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.0047</v>
+        <v>-0.7669</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5968</v>
+        <v>-0.3895</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.3681</v>
+        <v>-0.1465</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2526</v>
+        <v>0.5451</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3134</v>
+        <v>0.5705</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -1201,31 +1201,31 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>0.1311</v>
+        <v>0.0398</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1561</v>
+        <v>0.056</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4183</v>
+        <v>0.3869</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3973</v>
+        <v>0.3321</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4102</v>
+        <v>0.3204</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2994</v>
+        <v>0.1878</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0696</v>
+        <v>-0.0779</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0846</v>
+        <v>-0.0578</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0789</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="16">
@@ -1239,31 +1239,31 @@
         <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.039</v>
+        <v>-0.0386</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0094</v>
+        <v>0.0092</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0857</v>
+        <v>0.0846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0555</v>
+        <v>0.0547</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0341</v>
+        <v>0.0337</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0637</v>
+        <v>-0.0631</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0649</v>
+        <v>-0.0644</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0476</v>
+        <v>-0.0473</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1032</v>
+        <v>-0.1022</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -1295,31 +1295,31 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>-0.0365</v>
+        <v>-0.0363</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.024</v>
+        <v>-0.0239</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0265</v>
+        <v>-0.0263</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0206</v>
+        <v>-0.0205</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0217</v>
+        <v>-0.0216</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0302</v>
+        <v>-0.03</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0211</v>
+        <v>-0.0209</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0162</v>
+        <v>-0.0161</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.011</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="18">
@@ -1333,31 +1333,31 @@
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1216</v>
+        <v>0.1201</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1362</v>
+        <v>0.1348</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1456</v>
+        <v>0.1437</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1261</v>
+        <v>0.1243</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0852</v>
+        <v>0.084</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0492</v>
+        <v>0.0483</v>
       </c>
       <c r="J18" t="n">
         <v>-0.0368</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0899</v>
+        <v>-0.0892</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0971</v>
+        <v>-0.0964</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -1389,31 +1389,31 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>-0.0961</v>
+        <v>-0.0954</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0985</v>
+        <v>-0.0976</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0633</v>
+        <v>-0.0627</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0499</v>
+        <v>-0.0495</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0442</v>
+        <v>-0.0438</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0264</v>
+        <v>-0.0261</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0105</v>
+        <v>-0.0104</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01</v>
+        <v>-0.0099</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0085</v>
+        <v>-0.0084</v>
       </c>
     </row>
     <row r="20">
@@ -1427,31 +1427,31 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.0102</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0107</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.0118</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.0078</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.0079</v>
-      </c>
       <c r="L20" t="n">
-        <v>0.0058</v>
+        <v>0.0051</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -1521,31 +1521,31 @@
         <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0437</v>
+        <v>-0.0501</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0434</v>
+        <v>-0.0511</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1964</v>
+        <v>0.1825</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.9292</v>
+        <v>-0.9278</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2428</v>
+        <v>-0.2513</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8431</v>
+        <v>-0.8492</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.4818</v>
+        <v>-0.4895</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0463</v>
+        <v>0.0351</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0841</v>
+        <v>0.0715</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -1577,31 +1577,31 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>0.1334</v>
+        <v>0.1259</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0722</v>
+        <v>-0.0718</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.1594</v>
+        <v>-0.1573</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.077</v>
+        <v>-0.0762</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0709</v>
+        <v>-0.0702</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0377</v>
+        <v>-0.0374</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0742</v>
+        <v>-0.0734</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0723</v>
+        <v>-0.0716</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0693</v>
+        <v>-0.0686</v>
       </c>
     </row>
     <row r="24">
@@ -1615,31 +1615,31 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0646</v>
+        <v>0.0637</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0296</v>
+        <v>0.0292</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0274</v>
+        <v>0.0267</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0173</v>
+        <v>0.0168</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0131</v>
+        <v>-0.0132</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0124</v>
+        <v>-0.0126</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0118</v>
+        <v>-0.012</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0109</v>
+        <v>-0.0111</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0095</v>
+        <v>-0.0096</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -1671,28 +1671,28 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="n">
-        <v>-0.1368</v>
+        <v>-0.1357</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1146</v>
+        <v>-0.1135</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.104</v>
+        <v>-0.103</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0952</v>
+        <v>-0.0943</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0561</v>
+        <v>-0.0556</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.0305</v>
+        <v>-0.0302</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0302</v>
+        <v>-0.0299</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0238</v>
+        <v>-0.0235</v>
       </c>
       <c r="U25" t="n">
         <v>0.0002</v>
@@ -1709,31 +1709,31 @@
         <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>0.399</v>
+        <v>0.3926</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2365</v>
+        <v>0.2349</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0296</v>
+        <v>0.0321</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0604</v>
+        <v>-0.0559</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0848</v>
+        <v>-0.0809</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0844</v>
+        <v>-0.083</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0471</v>
+        <v>-0.0507</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.041</v>
+        <v>-0.0453</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.5068</v>
+        <v>-0.505</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
@@ -1765,31 +1765,31 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>-0.5769</v>
+        <v>-0.572</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.2266</v>
+        <v>-0.2242</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1789</v>
+        <v>-0.1769</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.3218</v>
+        <v>-0.3189</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2396</v>
+        <v>-0.2388</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1042</v>
+        <v>-0.1058</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0329</v>
+        <v>-0.0358</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0263</v>
+        <v>-0.0291</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0193</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="28">
@@ -1803,31 +1803,31 @@
         <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0755</v>
+        <v>0.0732</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.9745</v>
+        <v>-0.9657</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.0374</v>
+        <v>-1.027</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.9616</v>
+        <v>-0.9508</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.4202</v>
+        <v>-1.405</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.9659</v>
+        <v>-0.9558</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.3967</v>
+        <v>-0.393</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.3917</v>
+        <v>-0.3878</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.2839</v>
+        <v>-0.2812</v>
       </c>
       <c r="M28"/>
       <c r="N28"/>
@@ -1859,10 +1859,10 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>-0.1294</v>
+        <v>-0.1284</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0076</v>
+        <v>-0.0075</v>
       </c>
       <c r="O29" t="n">
         <v>-0.0014</v>
@@ -1897,31 +1897,31 @@
         <v>23</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.0761</v>
+        <v>-2.4471</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.4954</v>
+        <v>-2.9732</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.1028</v>
+        <v>-3.1863</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.8579</v>
+        <v>-3.8062</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.8431</v>
+        <v>-4.5576</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.3359</v>
+        <v>-2.1794</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.9889</v>
+        <v>-0.502</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2775</v>
+        <v>0.2504</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.2151</v>
+        <v>-0.245</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -1953,31 +1953,31 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>-0.1467</v>
+        <v>0.0549</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.1349</v>
+        <v>-0.1222</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.5118</v>
+        <v>-0.4576</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.3448</v>
+        <v>-0.3208</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.395</v>
+        <v>-0.4019</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2597</v>
+        <v>-0.2822</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.4655</v>
+        <v>-0.4974</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.5068</v>
+        <v>-0.5315</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.2111</v>
+        <v>-0.1686</v>
       </c>
     </row>
     <row r="32">
@@ -1991,31 +1991,31 @@
         <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>23046.9</v>
+        <v>23292.4</v>
       </c>
       <c r="E32" t="n">
-        <v>23550.4</v>
+        <v>23829</v>
       </c>
       <c r="F32" t="n">
-        <v>24349.1</v>
+        <v>24654.6</v>
       </c>
       <c r="G32" t="n">
-        <v>24740.5</v>
+        <v>25029.1</v>
       </c>
       <c r="H32" t="n">
-        <v>25248.5</v>
+        <v>25544.3</v>
       </c>
       <c r="I32" t="n">
-        <v>25723.9</v>
+        <v>25994.6</v>
       </c>
       <c r="J32" t="n">
-        <v>26138</v>
+        <v>26408.4</v>
       </c>
       <c r="K32" t="n">
-        <v>26529.8</v>
+        <v>26813.6</v>
       </c>
       <c r="L32" t="n">
-        <v>26798.6</v>
+        <v>27063</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -2047,31 +2047,31 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v>27029.9185</v>
+        <v>27296.6007</v>
       </c>
       <c r="N33" t="n">
-        <v>27301.5903</v>
+        <v>27570.9529</v>
       </c>
       <c r="O33" t="n">
-        <v>27613.8192</v>
+        <v>27886.2623</v>
       </c>
       <c r="P33" t="n">
-        <v>27943.7792</v>
+        <v>28219.4778</v>
       </c>
       <c r="Q33" t="n">
-        <v>28280.4648</v>
+        <v>28559.4851</v>
       </c>
       <c r="R33" t="n">
-        <v>28629.0729</v>
+        <v>28911.5327</v>
       </c>
       <c r="S33" t="n">
-        <v>28984.3047</v>
+        <v>29270.2692</v>
       </c>
       <c r="T33" t="n">
-        <v>29331.0786</v>
+        <v>29620.4645</v>
       </c>
       <c r="U33" t="n">
-        <v>29672.9611</v>
+        <v>29965.7201</v>
       </c>
     </row>
     <row r="34">
@@ -2085,31 +2085,31 @@
         <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6692</v>
+        <v>0.6755</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0325</v>
+        <v>-0.0235</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3023</v>
+        <v>0.3194</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3706</v>
+        <v>0.3919</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7885</v>
+        <v>0.8018</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3021</v>
+        <v>-0.2722</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.6923</v>
+        <v>-0.6609</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.141</v>
+        <v>-0.1246</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1584</v>
+        <v>-0.1315</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
@@ -2141,31 +2141,31 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>-0.1351</v>
+        <v>-0.1338</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0606</v>
+        <v>-0.06</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.2616</v>
+        <v>-0.2591</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.3746</v>
+        <v>-0.371</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.017</v>
+        <v>-0.0168</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0097</v>
+        <v>0.0096</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3166</v>
+        <v>-0.3135</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.1953</v>
+        <v>-0.1934</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0385</v>
+        <v>-0.0382</v>
       </c>
     </row>
     <row r="36">
@@ -2273,31 +2273,31 @@
         <v>23</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.0363</v>
+        <v>-1.0217</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0482</v>
+        <v>-0.0466</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.1582</v>
+        <v>-1.1437</v>
       </c>
       <c r="G38" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.0222</v>
+      </c>
+      <c r="I38" t="n">
         <v>-0.0329</v>
       </c>
-      <c r="H38" t="n">
-        <v>-0.023</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0.0338</v>
-      </c>
       <c r="J38" t="n">
-        <v>-0.0218</v>
+        <v>-0.0212</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0215</v>
+        <v>-0.0208</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.4277</v>
+        <v>-0.4227</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -2329,13 +2329,13 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="n">
-        <v>-0.0127</v>
+        <v>-0.0123</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0126</v>
+        <v>-0.0122</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.6091</v>
+        <v>-0.6029</v>
       </c>
       <c r="P39" t="n">
         <v>-0.0001</v>
@@ -2344,7 +2344,7 @@
         <v>-0.0001</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.0062</v>
+        <v>-0.0061</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -2367,31 +2367,31 @@
         <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2662</v>
+        <v>-0.2616</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.0954</v>
+        <v>-1.0835</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.3709</v>
+        <v>-0.3665</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0609</v>
+        <v>-0.0599</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.0046</v>
+        <v>-0.9928</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0302</v>
+        <v>-0.0298</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0203</v>
+        <v>-0.02</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.5175</v>
+        <v>-0.5121</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.2502</v>
+        <v>-0.2476</v>
       </c>
       <c r="M40"/>
       <c r="N40"/>
@@ -2423,7 +2423,7 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>-0.0332</v>
+        <v>-0.0329</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2461,31 +2461,31 @@
         <v>23</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.934</v>
+        <v>-1.0517</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3055</v>
+        <v>0.0181</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.7016</v>
+        <v>-0.729</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.6304</v>
+        <v>-0.6593</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.062</v>
+        <v>-1.096</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5116</v>
+        <v>0.485</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7872</v>
+        <v>0.7754</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4279</v>
+        <v>0.4335</v>
       </c>
       <c r="L42" t="n">
-        <v>0.463</v>
+        <v>0.4357</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -2517,31 +2517,31 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>0.0924</v>
+        <v>0.2916</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0445</v>
+        <v>0.044</v>
       </c>
       <c r="O43" t="n">
-        <v>0.222</v>
+        <v>0.2198</v>
       </c>
       <c r="P43" t="n">
-        <v>0.314</v>
+        <v>0.311</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0628</v>
+        <v>-0.0621</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1095</v>
+        <v>-0.1085</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2146</v>
+        <v>0.2125</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1062</v>
+        <v>0.1052</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0687</v>
+        <v>-0.068</v>
       </c>
     </row>
     <row r="44">
@@ -2555,31 +2555,31 @@
         <v>23</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0123</v>
+        <v>-0.0156</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0135</v>
+        <v>-0.0231</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0204</v>
+        <v>-0.0418</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0433</v>
+        <v>-0.052</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.0103</v>
+        <v>-0.027</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.0052</v>
+        <v>-0.0272</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0139</v>
+        <v>-0.0346</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0219</v>
+        <v>-0.0422</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0024</v>
+        <v>-0.0308</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
@@ -2611,31 +2611,31 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v>0.0089</v>
+        <v>0.0107</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0119</v>
+        <v>0.0131</v>
       </c>
       <c r="O45" t="n">
-        <v>0.013</v>
+        <v>0.0146</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0132</v>
+        <v>0.0179</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0142</v>
+        <v>0.0246</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0199</v>
+        <v>0.0403</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0432</v>
+        <v>0.0528</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0142</v>
+        <v>0.0309</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0086</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="46">
@@ -2649,31 +2649,31 @@
         <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2405</v>
+        <v>0.2373</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0514</v>
+        <v>-0.0477</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0074</v>
+        <v>-0.0185</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.1509</v>
+        <v>-0.0866</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1271</v>
+        <v>-0.0486</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1438</v>
+        <v>-0.0466</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0473</v>
+        <v>0.0812</v>
       </c>
       <c r="K46" t="n">
-        <v>0.099</v>
+        <v>0.1004</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1091</v>
+        <v>0.1214</v>
       </c>
       <c r="M46"/>
       <c r="N46"/>
@@ -2705,31 +2705,31 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="n">
-        <v>0.1847</v>
+        <v>0.0755</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1472</v>
+        <v>0.0436</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0806</v>
+        <v>-0.0165</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0325</v>
+        <v>-0.129</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0552</v>
+        <v>-0.0546</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.0553</v>
+        <v>-0.0548</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0555</v>
+        <v>-0.055</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0429</v>
+        <v>-0.0425</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0307</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="48">
@@ -2743,31 +2743,31 @@
         <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1088</v>
+        <v>-0.127</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0208</v>
+        <v>-0.0725</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0184</v>
+        <v>-0.1451</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0166</v>
+        <v>-0.1689</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0505</v>
+        <v>-0.1617</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0614</v>
+        <v>0.0432</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1163</v>
+        <v>0.0981</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2519</v>
+        <v>0.142</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3912</v>
+        <v>0.3117</v>
       </c>
       <c r="M48"/>
       <c r="N48"/>
@@ -2799,31 +2799,31 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="n">
-        <v>0.251</v>
+        <v>0.4146</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2128</v>
+        <v>0.3923</v>
       </c>
       <c r="O49" t="n">
-        <v>0.2085</v>
+        <v>0.3123</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1906</v>
+        <v>0.2904</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1778</v>
+        <v>0.2399</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1394</v>
+        <v>0.203</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0697</v>
+        <v>0.1629</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0098</v>
+        <v>0.0896</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0111</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="50">
@@ -2837,31 +2837,31 @@
         <v>23</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0206</v>
+        <v>0.0185</v>
       </c>
       <c r="E50" t="n">
-        <v>0.017</v>
+        <v>0.0158</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0219</v>
+        <v>0.0191</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0254</v>
+        <v>0.022</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0355</v>
+        <v>0.0328</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0072</v>
+        <v>0.0042</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0096</v>
+        <v>0.0068</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0041</v>
+        <v>-0.0072</v>
       </c>
       <c r="M50"/>
       <c r="N50"/>
@@ -2931,31 +2931,31 @@
         <v>23</v>
       </c>
       <c r="D52" t="n">
-        <v>165.3</v>
+        <v>162.3</v>
       </c>
       <c r="E52" t="n">
-        <v>169.9</v>
+        <v>166.4</v>
       </c>
       <c r="F52" t="n">
-        <v>170.2</v>
+        <v>166.8</v>
       </c>
       <c r="G52" t="n">
-        <v>171.6</v>
+        <v>169.1</v>
       </c>
       <c r="H52" t="n">
-        <v>173.2</v>
+        <v>176.6</v>
       </c>
       <c r="I52" t="n">
-        <v>196.8</v>
+        <v>196.5</v>
       </c>
       <c r="J52" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="K52" t="n">
-        <v>183.8</v>
+        <v>184.2</v>
       </c>
       <c r="L52" t="n">
-        <v>175.5</v>
+        <v>176.1</v>
       </c>
       <c r="M52"/>
       <c r="N52"/>
@@ -3025,7 +3025,7 @@
         <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
       <c r="E54" t="n">
         <v>-0.0011</v>
@@ -3087,10 +3087,10 @@
         <v>-0.0006</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.0015</v>
+        <v>-0.0014</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.0044</v>
+        <v>-0.0043</v>
       </c>
       <c r="Q55" t="n">
         <v>-0.0004</v>
@@ -3119,31 +3119,31 @@
         <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2083</v>
+        <v>-0.1554</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2194</v>
+        <v>-0.2608</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1272</v>
+        <v>-0.1429</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1239</v>
+        <v>-0.1394</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.2216</v>
+        <v>-0.1948</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.1072</v>
+        <v>-0.0977</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.0474</v>
+        <v>-0.0459</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0269</v>
+        <v>-0.0504</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.014</v>
+        <v>-0.0197</v>
       </c>
       <c r="M56"/>
       <c r="N56"/>
@@ -3175,31 +3175,31 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="n">
-        <v>-0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0031</v>
+        <v>0.0006</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0046</v>
+        <v>0.0024</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0103</v>
+        <v>0.0095</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0118</v>
+        <v>0.0113</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0125</v>
+        <v>0.0115</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0105</v>
+        <v>0.0109</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0089</v>
+        <v>0.0092</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0041</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="58">
@@ -3213,31 +3213,31 @@
         <v>52</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -3401,31 +3401,31 @@
         <v>52</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M62"/>
       <c r="N62"/>
@@ -3457,31 +3457,31 @@
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="64">
@@ -3495,31 +3495,31 @@
         <v>52</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-0.1319</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.1526</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-0.0841</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>-0.0153</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>-0.1322</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.2642</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-0.0375</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="M64"/>
       <c r="N64"/>
@@ -3551,31 +3551,31 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.0482</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="66">
@@ -3589,31 +3589,31 @@
         <v>52</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>-0.0026</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>-0.0088</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>-0.0202</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>-0.0217</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-0.0156</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-0.0209</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>-0.0244</v>
       </c>
       <c r="M66"/>
       <c r="N66"/>
@@ -3645,31 +3645,31 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.0135</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>0.0114</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>0.0197</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="68">
@@ -3683,31 +3683,31 @@
         <v>52</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-0.0534</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>-0.0377</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.0177</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.0977</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.0955</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.0475</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>-0.0656</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-0.1185</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>-0.1469</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -3739,31 +3739,31 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>-0.0345</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>0.0186</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>0.0657</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.0736</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="70">
@@ -3777,31 +3777,31 @@
         <v>52</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-0.0906</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-0.0593</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>-0.0205</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.2378</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.2073</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>0.2216</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.2925</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.2571</v>
       </c>
       <c r="M70"/>
       <c r="N70"/>
@@ -3833,31 +3833,31 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>-0.0913</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>-0.1001</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>-0.0314</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>-0.0652</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>-0.0898</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>-0.1116</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>-0.1475</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>-0.1423</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="72">
@@ -3871,31 +3871,31 @@
         <v>52</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -3927,31 +3927,31 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="74">
@@ -3965,31 +3965,31 @@
         <v>52</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="M74"/>
       <c r="N74"/>
@@ -4021,31 +4021,31 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="76">
@@ -4059,31 +4059,31 @@
         <v>52</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -4153,31 +4153,31 @@
         <v>52</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-0.0064</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>-0.0077</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>-0.0139</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>-0.0085</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-0.0061</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>-0.0077</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-0.0112</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>-0.0125</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -4209,31 +4209,31 @@
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>-0.0076</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="80">
@@ -4247,31 +4247,31 @@
         <v>52</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -4303,28 +4303,28 @@
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -4341,31 +4341,31 @@
         <v>52</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-0.0065</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>-0.0036</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-0.0043</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="M82"/>
       <c r="N82"/>
@@ -4397,31 +4397,31 @@
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="84">
@@ -4435,31 +4435,31 @@
         <v>52</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-0.0023</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>0.0088</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.0103</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.0108</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.0153</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="M84"/>
       <c r="N84"/>
@@ -4491,10 +4491,10 @@
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4529,31 +4529,31 @@
         <v>52</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-0.371</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.4777</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>-0.0834</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.0517</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.2855</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.1564</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.4869</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-0.0271</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>-0.0299</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -4585,31 +4585,31 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.2017</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.0127</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>0.0543</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>0.0241</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>-0.0069</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>-0.0225</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>-0.0319</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>-0.0246</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="88">
@@ -4623,31 +4623,31 @@
         <v>52</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>245.5</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>278.6</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>305.5</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>288.6</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>295.8</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>270.7</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>270.4</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>283.8</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>264.4</v>
       </c>
       <c r="M88"/>
       <c r="N88"/>
@@ -4679,31 +4679,31 @@
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>266.6822</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>269.3626</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>272.4431</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>275.6986</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>279.0204</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>282.4598</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>285.9646</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>289.3859</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>292.759</v>
       </c>
     </row>
     <row r="90">
@@ -4717,31 +4717,31 @@
         <v>52</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.0299</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.0314</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.0269</v>
       </c>
       <c r="M90"/>
       <c r="N90"/>
@@ -4773,31 +4773,31 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="92">
@@ -4905,31 +4905,31 @@
         <v>52</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>0.0146</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>0.0145</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M94"/>
       <c r="N94"/>
@@ -4961,13 +4961,13 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -4999,31 +4999,31 @@
         <v>52</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.0118</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="M96"/>
       <c r="N96"/>
@@ -5055,7 +5055,7 @@
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5093,31 +5093,31 @@
         <v>52</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-0.1177</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-0.2873</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>-0.0273</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>-0.0288</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>-0.034</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>-0.0267</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>-0.0117</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>-0.0272</v>
       </c>
       <c r="M98"/>
       <c r="N98"/>
@@ -5149,31 +5149,31 @@
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>0.1992</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="100">
@@ -5187,31 +5187,31 @@
         <v>52</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-0.0033</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>-0.0096</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>-0.0214</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>-0.0087</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>-0.0167</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>-0.0219</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>-0.0206</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-0.0203</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>-0.0285</v>
       </c>
       <c r="M100"/>
       <c r="N100"/>
@@ -5243,31 +5243,31 @@
       <c r="K101"/>
       <c r="L101"/>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.0104</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="102">
@@ -5281,31 +5281,31 @@
         <v>52</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>-0.0111</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.0643</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.0785</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.0972</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>0.1285</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="M102"/>
       <c r="N102"/>
@@ -5337,31 +5337,31 @@
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>-0.1092</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>-0.1036</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>-0.0971</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>-0.0965</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="104">
@@ -5375,31 +5375,31 @@
         <v>52</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-0.0182</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>-0.0933</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>-0.1634</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>-0.1523</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>-0.1112</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>-0.0182</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>-0.0181</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-0.11</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>-0.0795</v>
       </c>
       <c r="M104"/>
       <c r="N104"/>
@@ -5431,31 +5431,31 @@
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>0.1636</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>0.1795</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>0.1039</v>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>0.0997</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>0.0621</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>0.0637</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>0.0931</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>0.0798</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="106">
@@ -5469,31 +5469,31 @@
         <v>52</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>-0.0034</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>-0.0027</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="M106"/>
       <c r="N106"/>
@@ -5563,31 +5563,31 @@
         <v>52</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M108"/>
       <c r="N108"/>
@@ -5657,7 +5657,7 @@
         <v>52</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -5751,31 +5751,31 @@
         <v>52</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.0529</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>-0.0414</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>-0.0157</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>-0.0155</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>-0.0235</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="M112"/>
       <c r="N112"/>
@@ -5807,28 +5807,28 @@
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>-0.0025</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>

--- a/results/09-2023/contributions-comparison-09-2023.xlsx
+++ b/results/09-2023/contributions-comparison-09-2023.xlsx
@@ -863,31 +863,31 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1191</v>
+        <v>-0.3178</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6457</v>
+        <v>-0.4967</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3213</v>
+        <v>0.2011</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2096</v>
+        <v>-0.153</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4212</v>
+        <v>0.3921</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3109</v>
+        <v>-0.3316</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1707</v>
+        <v>-0.2298</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0933</v>
+        <v>0.0993</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1747</v>
+        <v>-0.1753</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -919,31 +919,31 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>-0.1378</v>
+        <v>-0.184</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1926</v>
+        <v>-0.1921</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3912</v>
+        <v>-0.3907</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4891</v>
+        <v>-0.4886</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1416</v>
+        <v>-0.1412</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1412</v>
+        <v>-0.1407</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4555</v>
+        <v>-0.455</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.4539</v>
+        <v>-0.4533</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1215</v>
+        <v>-0.1212</v>
       </c>
     </row>
     <row r="10">
@@ -1013,31 +1013,31 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>0.3454</v>
+        <v>0.3099</v>
       </c>
       <c r="N11" t="n">
-        <v>0.322</v>
+        <v>0.2871</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2069</v>
+        <v>0.1728</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0731</v>
+        <v>-0.1066</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1906</v>
+        <v>-0.2234</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.174</v>
+        <v>-0.2062</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2324</v>
+        <v>-0.2641</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1648</v>
+        <v>-0.1959</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1131</v>
+        <v>-0.1437</v>
       </c>
     </row>
     <row r="12">
@@ -1107,31 +1107,31 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>-0.0427</v>
+        <v>-0.1594</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.02</v>
+        <v>-0.1351</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.062</v>
+        <v>-0.1755</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0524</v>
+        <v>-0.1778</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0619</v>
+        <v>-0.0863</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0065</v>
+        <v>-0.0092</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0705</v>
+        <v>0.0632</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1165</v>
+        <v>0.1303</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1625</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="14">
@@ -1201,31 +1201,31 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>0.0398</v>
+        <v>0.2843</v>
       </c>
       <c r="N15" t="n">
-        <v>0.056</v>
+        <v>0.3791</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3869</v>
+        <v>0.5454</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3321</v>
+        <v>0.4468</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3204</v>
+        <v>0.4513</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1878</v>
+        <v>0.3753</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.0779</v>
+        <v>0.0587</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.0578</v>
+        <v>0.0448</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0781</v>
+        <v>0.0874</v>
       </c>
     </row>
     <row r="16">
@@ -1521,31 +1521,31 @@
         <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0501</v>
+        <v>-0.0183</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0511</v>
+        <v>-0.0199</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1825</v>
+        <v>0.2097</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.9278</v>
+        <v>-0.881</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2513</v>
+        <v>-0.1909</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8492</v>
+        <v>-0.8361</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.4895</v>
+        <v>-0.4616</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0351</v>
+        <v>-0.0436</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0715</v>
+        <v>-0.0327</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -1577,31 +1577,31 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>0.1259</v>
+        <v>0.0695</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0718</v>
+        <v>-0.128</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.1573</v>
+        <v>-0.168</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0762</v>
+        <v>-0.0775</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0702</v>
+        <v>-0.0715</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0374</v>
+        <v>-0.0386</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0734</v>
+        <v>-0.0746</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0716</v>
+        <v>-0.0728</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0686</v>
+        <v>-0.0697</v>
       </c>
     </row>
     <row r="24">
@@ -1897,31 +1897,31 @@
         <v>23</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.4471</v>
+        <v>-2.4153</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.9732</v>
+        <v>-2.942</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.1863</v>
+        <v>-3.159</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.8062</v>
+        <v>-3.7594</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.5576</v>
+        <v>-4.4973</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.1794</v>
+        <v>-2.1663</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.502</v>
+        <v>-0.4741</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2504</v>
+        <v>0.1716</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.245</v>
+        <v>-0.3492</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -1953,31 +1953,31 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>0.0549</v>
+        <v>-0.3699</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.1222</v>
+        <v>-0.2357</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.4576</v>
+        <v>-0.5977</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.3208</v>
+        <v>-0.5086</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.4019</v>
+        <v>-0.5026</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2822</v>
+        <v>-0.2906</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.4974</v>
+        <v>-0.5238</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.5315</v>
+        <v>-0.5601</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1686</v>
+        <v>-0.1616</v>
       </c>
     </row>
     <row r="32">
@@ -2085,31 +2085,31 @@
         <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6755</v>
+        <v>0.4768</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0235</v>
+        <v>0.1255</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3194</v>
+        <v>0.1992</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3919</v>
+        <v>0.4485</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8018</v>
+        <v>0.7727</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2722</v>
+        <v>-0.2929</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.6609</v>
+        <v>-0.72</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.1246</v>
+        <v>-0.1187</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1315</v>
+        <v>-0.1321</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
@@ -2141,31 +2141,31 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>-0.1338</v>
+        <v>-0.1336</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.06</v>
+        <v>-0.0597</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.2591</v>
+        <v>-0.2587</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.371</v>
+        <v>-0.3707</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0168</v>
+        <v>-0.0166</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0096</v>
+        <v>0.0099</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3135</v>
+        <v>-0.3132</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.1934</v>
+        <v>-0.1932</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0382</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="36">
@@ -2461,31 +2461,31 @@
         <v>23</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.0517</v>
+        <v>-0.853</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0181</v>
+        <v>-0.1309</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.729</v>
+        <v>-0.6088</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.6593</v>
+        <v>-0.7158</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.096</v>
+        <v>-1.0669</v>
       </c>
       <c r="I42" t="n">
-        <v>0.485</v>
+        <v>0.5057</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7754</v>
+        <v>0.8345</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4335</v>
+        <v>0.4275</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4357</v>
+        <v>0.4364</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -2517,31 +2517,31 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>0.2916</v>
+        <v>0.0916</v>
       </c>
       <c r="N43" t="n">
-        <v>0.044</v>
+        <v>0.0438</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2198</v>
+        <v>0.2197</v>
       </c>
       <c r="P43" t="n">
         <v>0.311</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0621</v>
+        <v>-0.062</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1085</v>
+        <v>-0.1082</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2125</v>
+        <v>0.2127</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1052</v>
+        <v>0.1054</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.068</v>
+        <v>-0.0678</v>
       </c>
     </row>
     <row r="44">
@@ -2611,31 +2611,31 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v>0.0107</v>
+        <v>-0.0164</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0131</v>
+        <v>-0.0129</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0146</v>
+        <v>-0.0109</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0179</v>
+        <v>-0.0073</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0246</v>
+        <v>-0.0003</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0403</v>
+        <v>0.0153</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0528</v>
+        <v>0.0273</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0309</v>
+        <v>0.0052</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0301</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="46">
@@ -2705,31 +2705,31 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="n">
-        <v>0.0755</v>
+        <v>0.1038</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0436</v>
+        <v>0.0512</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.0165</v>
+        <v>-0.0285</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.129</v>
+        <v>-0.1457</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0546</v>
+        <v>-0.1029</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.0548</v>
+        <v>-0.0785</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.055</v>
+        <v>-0.0557</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0425</v>
+        <v>-0.0345</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0304</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="48">
@@ -2799,31 +2799,31 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="n">
-        <v>0.4146</v>
+        <v>0.199</v>
       </c>
       <c r="N49" t="n">
-        <v>0.3923</v>
+        <v>0.179</v>
       </c>
       <c r="O49" t="n">
-        <v>0.3123</v>
+        <v>0.2077</v>
       </c>
       <c r="P49" t="n">
-        <v>0.2904</v>
+        <v>0.1874</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2399</v>
+        <v>0.1384</v>
       </c>
       <c r="R49" t="n">
-        <v>0.203</v>
+        <v>0.1029</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1629</v>
+        <v>0.0641</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0896</v>
+        <v>-0.0079</v>
       </c>
       <c r="U49" t="n">
-        <v>0.011</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="50">
@@ -2987,31 +2987,31 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53" t="n">
-        <v>189.3096</v>
+        <v>190.0011</v>
       </c>
       <c r="N53" t="n">
-        <v>192.2453</v>
+        <v>193.124</v>
       </c>
       <c r="O53" t="n">
-        <v>195.2264</v>
+        <v>196.2983</v>
       </c>
       <c r="P53" t="n">
-        <v>198.2538</v>
+        <v>199.5248</v>
       </c>
       <c r="Q53" t="n">
-        <v>201.3282</v>
+        <v>202.8043</v>
       </c>
       <c r="R53" t="n">
-        <v>204.4502</v>
+        <v>206.1377</v>
       </c>
       <c r="S53" t="n">
-        <v>207.6206</v>
+        <v>209.5258</v>
       </c>
       <c r="T53" t="n">
-        <v>210.8402</v>
+        <v>212.9697</v>
       </c>
       <c r="U53" t="n">
-        <v>214.1097</v>
+        <v>216.4702</v>
       </c>
     </row>
     <row r="54">
@@ -3175,31 +3175,31 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="n">
-        <v>0.005</v>
+        <v>0.0026</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0006</v>
+        <v>-0.0015</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0024</v>
+        <v>0.0004</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0095</v>
+        <v>0.0075</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0113</v>
+        <v>0.0099</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0115</v>
+        <v>0.0106</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0109</v>
+        <v>0.01</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0092</v>
+        <v>0.0085</v>
       </c>
       <c r="U57" t="n">
-        <v>0.004</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="58">
@@ -3495,31 +3495,31 @@
         <v>52</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.1319</v>
+        <v>-0.3306</v>
       </c>
       <c r="E64" t="n">
-        <v>0.047</v>
+        <v>0.196</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1526</v>
+        <v>0.0324</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0841</v>
+        <v>-0.0275</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.0153</v>
+        <v>-0.0445</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.1322</v>
+        <v>-0.1529</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2642</v>
+        <v>0.2051</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.0375</v>
+        <v>-0.0315</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0222</v>
+        <v>0.0216</v>
       </c>
       <c r="M64"/>
       <c r="N64"/>
@@ -3551,31 +3551,31 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" t="n">
-        <v>0.0482</v>
+        <v>0.002</v>
       </c>
       <c r="N65" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="Q65" t="n">
         <v>0.0019</v>
       </c>
-      <c r="O65" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.0014</v>
-      </c>
       <c r="R65" t="n">
-        <v>0.0014</v>
+        <v>0.0019</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="T65" t="n">
-        <v>0.0045</v>
+        <v>0.0051</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0012</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="66">
@@ -3645,31 +3645,31 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67" t="n">
-        <v>0.0135</v>
+        <v>-0.022</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0114</v>
+        <v>-0.0235</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0015</v>
+        <v>-0.0327</v>
       </c>
       <c r="P67" t="n">
-        <v>0.004</v>
+        <v>-0.0295</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0047</v>
+        <v>-0.0281</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0032</v>
+        <v>-0.029</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0116</v>
+        <v>-0.0201</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0197</v>
+        <v>-0.0114</v>
       </c>
       <c r="U67" t="n">
-        <v>0.022</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="68">
@@ -3739,31 +3739,31 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" t="n">
-        <v>-0.0345</v>
+        <v>-0.1512</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0186</v>
+        <v>-0.0965</v>
       </c>
       <c r="O69" t="n">
-        <v>0.0657</v>
+        <v>-0.0478</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0736</v>
+        <v>-0.0518</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0006</v>
+        <v>-0.0238</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.0001</v>
+        <v>-0.0158</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.0007</v>
+        <v>-0.008</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.0011</v>
+        <v>0.0127</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.0016</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="70">
@@ -3833,31 +3833,31 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71" t="n">
-        <v>-0.0913</v>
+        <v>0.1532</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.1001</v>
+        <v>0.223</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.0314</v>
+        <v>0.1271</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.0652</v>
+        <v>0.0495</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.0898</v>
+        <v>0.0411</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.1116</v>
+        <v>0.076</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.1475</v>
+        <v>-0.0109</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.1423</v>
+        <v>-0.0398</v>
       </c>
       <c r="U71" t="n">
-        <v>-0.0008</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="72">
@@ -4153,31 +4153,31 @@
         <v>52</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0064</v>
+        <v>0.0254</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.0077</v>
+        <v>0.0235</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0139</v>
+        <v>0.0134</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0014</v>
+        <v>0.0482</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.0085</v>
+        <v>0.0518</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.0061</v>
+        <v>0.007</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.0077</v>
+        <v>0.0201</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.0112</v>
+        <v>-0.0899</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.0125</v>
+        <v>-0.1168</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -4209,31 +4209,31 @@
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79" t="n">
-        <v>-0.0076</v>
+        <v>-0.0639</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0004</v>
+        <v>-0.0559</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0021</v>
+        <v>-0.0086</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0008</v>
+        <v>-0.0006</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0007</v>
+        <v>-0.0006</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0004</v>
+        <v>-0.0009</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0007</v>
+        <v>-0.0005</v>
       </c>
       <c r="T79" t="n">
-        <v>0.0007</v>
+        <v>-0.0005</v>
       </c>
       <c r="U79" t="n">
-        <v>0.0007</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="80">
@@ -4529,31 +4529,31 @@
         <v>52</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.371</v>
+        <v>-0.3392</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.4777</v>
+        <v>-0.4466</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0834</v>
+        <v>-0.0562</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0517</v>
+        <v>0.0985</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2855</v>
+        <v>0.3458</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1564</v>
+        <v>0.1695</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4869</v>
+        <v>0.5147</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0271</v>
+        <v>-0.1058</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.0299</v>
+        <v>-0.1341</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -4585,31 +4585,31 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="n">
-        <v>0.2017</v>
+        <v>-0.2232</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0127</v>
+        <v>-0.1009</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0543</v>
+        <v>-0.0859</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0241</v>
+        <v>-0.1638</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.0069</v>
+        <v>-0.1076</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.0225</v>
+        <v>-0.0309</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.0319</v>
+        <v>-0.0583</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.0246</v>
+        <v>-0.0532</v>
       </c>
       <c r="U87" t="n">
-        <v>0.0425</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="88">
@@ -4717,31 +4717,31 @@
         <v>52</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0063</v>
+        <v>-0.1924</v>
       </c>
       <c r="E90" t="n">
-        <v>0.009</v>
+        <v>0.158</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0171</v>
+        <v>-0.1031</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0213</v>
+        <v>0.0779</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0133</v>
+        <v>-0.0158</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0299</v>
+        <v>0.0092</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0314</v>
+        <v>-0.0277</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0164</v>
+        <v>0.0223</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0269</v>
+        <v>0.0263</v>
       </c>
       <c r="M90"/>
       <c r="N90"/>
@@ -4773,31 +4773,31 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91" t="n">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
       <c r="N91" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="U91" t="n">
         <v>0.0006</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="R91" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="T91" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="U91" t="n">
-        <v>0.0004</v>
       </c>
     </row>
     <row r="92">
@@ -5093,31 +5093,31 @@
         <v>52</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1177</v>
+        <v>0.081</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.2873</v>
+        <v>-0.4364</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0273</v>
+        <v>0.0929</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0288</v>
+        <v>-0.0854</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.034</v>
+        <v>-0.0048</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.0267</v>
+        <v>-0.006</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.0117</v>
+        <v>0.0474</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0055</v>
+        <v>-0.0004</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.0272</v>
+        <v>-0.0266</v>
       </c>
       <c r="M98"/>
       <c r="N98"/>
@@ -5149,31 +5149,31 @@
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99" t="n">
-        <v>0.1992</v>
+        <v>-0.0008</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.0004</v>
+        <v>-0.0006</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.0022</v>
+        <v>-0.0023</v>
       </c>
       <c r="P99" t="n">
         <v>-0.0031</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.0021</v>
+        <v>-0.0019</v>
       </c>
       <c r="T99" t="n">
-        <v>-0.001</v>
+        <v>-0.0008</v>
       </c>
       <c r="U99" t="n">
-        <v>0.0007</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="100">
@@ -5243,31 +5243,31 @@
       <c r="K101"/>
       <c r="L101"/>
       <c r="M101" t="n">
-        <v>0.0018</v>
+        <v>-0.0253</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0011</v>
+        <v>-0.0248</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0016</v>
+        <v>-0.0239</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0047</v>
+        <v>-0.0204</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0104</v>
+        <v>-0.0144</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0204</v>
+        <v>-0.0046</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0097</v>
+        <v>-0.0158</v>
       </c>
       <c r="T101" t="n">
-        <v>0.0167</v>
+        <v>-0.0091</v>
       </c>
       <c r="U101" t="n">
-        <v>0.0215</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="102">
@@ -5337,31 +5337,31 @@
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103" t="n">
-        <v>-0.1092</v>
+        <v>-0.0809</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.1036</v>
+        <v>-0.0961</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.0971</v>
+        <v>-0.1091</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0965</v>
+        <v>-0.1133</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0005</v>
+        <v>-0.0477</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0005</v>
+        <v>-0.0232</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0005</v>
+        <v>-0.0002</v>
       </c>
       <c r="T103" t="n">
-        <v>0.0004</v>
+        <v>0.0084</v>
       </c>
       <c r="U103" t="n">
-        <v>0.0003</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="104">
@@ -5431,31 +5431,31 @@
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105" t="n">
-        <v>0.1636</v>
+        <v>-0.052</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1795</v>
+        <v>-0.0338</v>
       </c>
       <c r="O105" t="n">
-        <v>0.1039</v>
+        <v>-0.0008</v>
       </c>
       <c r="P105" t="n">
-        <v>0.0997</v>
+        <v>-0.0033</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.0621</v>
+        <v>-0.0394</v>
       </c>
       <c r="R105" t="n">
-        <v>0.0637</v>
+        <v>-0.0365</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0931</v>
+        <v>-0.0056</v>
       </c>
       <c r="T105" t="n">
-        <v>0.0798</v>
+        <v>-0.0177</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.0001</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="106">
@@ -5619,31 +5619,31 @@
       <c r="K109"/>
       <c r="L109"/>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>0.6915</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>0.8788</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>1.0719</v>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>1.2709</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>1.4761</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1.6875</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>1.9052</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>2.1295</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>2.3605</v>
       </c>
     </row>
     <row r="110">
@@ -5807,31 +5807,31 @@
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113" t="n">
-        <v>0.0084</v>
+        <v>0.006</v>
       </c>
       <c r="N113" t="n">
-        <v>-0.0025</v>
+        <v>-0.0045</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.0022</v>
+        <v>-0.0042</v>
       </c>
       <c r="P113" t="n">
-        <v>-0.0008</v>
+        <v>-0.0028</v>
       </c>
       <c r="Q113" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="R113" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="S113" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="R113" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.0005</v>
-      </c>
       <c r="T113" t="n">
-        <v>0.0004</v>
+        <v>-0.0004</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="114">
